--- a/planning_info/NW_chartering_2021_Borek.xlsx
+++ b/planning_info/NW_chartering_2021_Borek.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,50 +497,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>fuel_remaining(liters)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>arrival time (local time)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>stoppage time (h)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>from lat</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>from lon</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>destination lat</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>destination lon</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>start location name</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>landing location name</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>air speed kt</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>description of work</t>
         </is>
@@ -594,39 +599,42 @@
         <v>12</v>
       </c>
       <c r="M2" t="n">
+        <v>244</v>
+      </c>
+      <c r="N2" t="n">
         <v>11.8</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>74.7184</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-94.9842</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>76.5333</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>-68.6999</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Resolute Bay</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Thule Air Base</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>140</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>transit to Greenland.</t>
         </is>
@@ -680,39 +688,42 @@
         <v>25</v>
       </c>
       <c r="M3" t="n">
+        <v>78</v>
+      </c>
+      <c r="N3" t="n">
         <v>13.6</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>76.5333</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-68.6999</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>77.4855</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>-69.375</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Thule Air Base</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>140</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>move people and cargo to QAN airport</t>
         </is>
@@ -747,6 +758,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -796,39 +808,42 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
+        <v>815</v>
+      </c>
+      <c r="N5" t="n">
         <v>10.1</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>77.4855</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-69.375</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>80.0971</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>-58.1384</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Petermann ELA</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>140</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>new AWS install at Petermann ELA</t>
         </is>
@@ -882,39 +897,42 @@
         <v>18</v>
       </c>
       <c r="M6" t="n">
+        <v>231</v>
+      </c>
+      <c r="N6" t="n">
         <v>12.7</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>80.0971</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-58.1384</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>77.4855</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>-69.375</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Petermann ELA</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>140</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>return to QAN to overnight</t>
         </is>
@@ -949,6 +967,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -998,41 +1017,44 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
+        <v>713</v>
+      </c>
+      <c r="N8" t="n">
         <v>10.1</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>77.4855</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-69.375</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>77.5022</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>-50.8744</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>NEEM</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>140</v>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>long day. new AWS install at Neem and visit Humboldt after NEEM landing and ground stop. no crane?</t>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>long day. bring 1 x 200 l fuel barrel with. new AWS install at Neem and visit Humboldt after NEEM landing and ground stop. no crane?</t>
         </is>
       </c>
     </row>
@@ -1084,39 +1106,42 @@
         <v>17</v>
       </c>
       <c r="M9" t="n">
+        <v>636</v>
+      </c>
+      <c r="N9" t="n">
         <v>15.2</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>77.5022</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-50.8744</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>78.5266</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>-56.8305</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>NEEM</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Humboldt</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>140</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t xml:space="preserve">new AWS install at Neem. recover some Neem kit? 4.5 h ground stop. after this and visit Humboldt after NEEM landing and </t>
         </is>
@@ -1170,39 +1195,42 @@
         <v>31</v>
       </c>
       <c r="M10" t="n">
+        <v>154</v>
+      </c>
+      <c r="N10" t="n">
         <v>18.8</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>78.5266</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-56.8305</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>77.4855</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>-69.375</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Humboldt</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>140</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>return to QAAN to overnight</t>
         </is>
@@ -1237,6 +1265,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1286,39 +1315,42 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
+        <v>1079</v>
+      </c>
+      <c r="N12" t="n">
         <v>9.5</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>77.4855</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>-69.375</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>77.13</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>-61.03</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>CEN</t>
         </is>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>140</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>service 1 existing AWS. 3 other towers. no crane?</t>
         </is>
@@ -1372,39 +1404,42 @@
         <v>10</v>
       </c>
       <c r="M13" t="n">
+        <v>757</v>
+      </c>
+      <c r="N13" t="n">
         <v>15.7</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>77.13</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>-61.03</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>77.4855</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>-69.375</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>CEN</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>140</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>return to QAN to overnight</t>
         </is>
@@ -1439,6 +1474,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1488,39 +1524,42 @@
         <v>2</v>
       </c>
       <c r="M15" t="n">
+        <v>1234</v>
+      </c>
+      <c r="N15" t="n">
         <v>9.1</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>77.4855</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>-69.375</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>76.5333</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>-68.6999</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Qaanaaq</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Thule Air Base</t>
         </is>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>140</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>return PAX to THU then return plane to YRB</t>
         </is>
@@ -1574,39 +1613,42 @@
         <v>15</v>
       </c>
       <c r="M16" t="n">
+        <v>78</v>
+      </c>
+      <c r="N16" t="n">
         <v>13.4</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>end of flying</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>76.5333</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>-68.6999</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>74.7184</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>-94.9842</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Thule Air Base</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Resolute Bay</t>
         </is>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>140</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>return to YRB with no PAX</t>
         </is>
@@ -1641,6 +1683,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1669,6 +1712,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1697,6 +1741,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1725,6 +1770,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planning_info/NW_chartering_2021_Borek.xlsx
+++ b/planning_info/NW_chartering_2021_Borek.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,93 +1685,6 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6. weather delay</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>7. weather delay</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>8. weather delay</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
